--- a/03_Figures/03_Maps/Data/Unemployment/Data cleaned per country/Netherlands-cleaned.xlsx
+++ b/03_Figures/03_Maps/Data/Unemployment/Data cleaned per country/Netherlands-cleaned.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohamed\Documents\ESPON-DATA\03_Figures\03_Maps\Unemployment\Unemployment rates\Data cleaned per country\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mhachaichi\Documents\ESPON-DATA\03_Figures\03_Maps\Data\Unemployment\Data cleaned per country\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8170C00B-5227-4878-BE94-38C14EA98E69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14190" yWindow="2115" windowWidth="13710" windowHeight="13110"/>
+    <workbookView xWindow="430" yWindow="1730" windowWidth="11540" windowHeight="7460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1103,7 +1104,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1161,7 +1162,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1438,16 +1439,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F353"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A335" workbookViewId="0">
-      <selection activeCell="H341" sqref="H341"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1467,7 +1468,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>357</v>
       </c>
@@ -1484,7 +1485,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>357</v>
       </c>
@@ -1501,7 +1502,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>357</v>
       </c>
@@ -1518,7 +1519,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>357</v>
       </c>
@@ -1535,7 +1536,7 @@
         <v>3.69999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>357</v>
       </c>
@@ -1552,7 +1553,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>357</v>
       </c>
@@ -1569,7 +1570,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>357</v>
       </c>
@@ -1586,7 +1587,7 @@
         <v>3.5999999999999899</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>357</v>
       </c>
@@ -1603,7 +1604,7 @@
         <v>4.3999999999999897</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>357</v>
       </c>
@@ -1620,7 +1621,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>357</v>
       </c>
@@ -1637,7 +1638,7 @@
         <v>3.5999999999999899</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>357</v>
       </c>
@@ -1654,7 +1655,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>357</v>
       </c>
@@ -1671,7 +1672,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>357</v>
       </c>
@@ -1688,7 +1689,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>357</v>
       </c>
@@ -1705,7 +1706,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>357</v>
       </c>
@@ -1722,7 +1723,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>357</v>
       </c>
@@ -1739,7 +1740,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>357</v>
       </c>
@@ -1756,7 +1757,7 @@
         <v>3.69999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>357</v>
       </c>
@@ -1773,7 +1774,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>357</v>
       </c>
@@ -1790,7 +1791,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>357</v>
       </c>
@@ -1807,7 +1808,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>357</v>
       </c>
@@ -1824,7 +1825,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>357</v>
       </c>
@@ -1841,7 +1842,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>357</v>
       </c>
@@ -1858,7 +1859,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>357</v>
       </c>
@@ -1875,7 +1876,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>357</v>
       </c>
@@ -1892,7 +1893,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>357</v>
       </c>
@@ -1909,7 +1910,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>357</v>
       </c>
@@ -1926,7 +1927,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>357</v>
       </c>
@@ -1943,7 +1944,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>357</v>
       </c>
@@ -1960,7 +1961,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>357</v>
       </c>
@@ -1977,7 +1978,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>357</v>
       </c>
@@ -1994,7 +1995,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>357</v>
       </c>
@@ -2011,7 +2012,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>357</v>
       </c>
@@ -2028,7 +2029,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>357</v>
       </c>
@@ -2045,7 +2046,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>357</v>
       </c>
@@ -2062,7 +2063,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>357</v>
       </c>
@@ -2079,7 +2080,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>357</v>
       </c>
@@ -2096,7 +2097,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>357</v>
       </c>
@@ -2113,7 +2114,7 @@
         <v>3.5999999999999899</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>357</v>
       </c>
@@ -2130,7 +2131,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>357</v>
       </c>
@@ -2147,7 +2148,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>357</v>
       </c>
@@ -2164,7 +2165,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>357</v>
       </c>
@@ -2181,7 +2182,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>357</v>
       </c>
@@ -2198,7 +2199,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>357</v>
       </c>
@@ -2215,7 +2216,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>357</v>
       </c>
@@ -2232,7 +2233,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>357</v>
       </c>
@@ -2249,7 +2250,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>357</v>
       </c>
@@ -2266,7 +2267,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>357</v>
       </c>
@@ -2283,7 +2284,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>357</v>
       </c>
@@ -2300,7 +2301,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>357</v>
       </c>
@@ -2317,7 +2318,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>357</v>
       </c>
@@ -2334,7 +2335,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>357</v>
       </c>
@@ -2351,7 +2352,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>357</v>
       </c>
@@ -2368,7 +2369,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>357</v>
       </c>
@@ -2385,7 +2386,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>357</v>
       </c>
@@ -2402,7 +2403,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>357</v>
       </c>
@@ -2419,7 +2420,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>357</v>
       </c>
@@ -2436,7 +2437,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>357</v>
       </c>
@@ -2453,7 +2454,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>357</v>
       </c>
@@ -2470,7 +2471,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>357</v>
       </c>
@@ -2487,7 +2488,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>357</v>
       </c>
@@ -2504,7 +2505,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>357</v>
       </c>
@@ -2521,7 +2522,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>357</v>
       </c>
@@ -2538,7 +2539,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>357</v>
       </c>
@@ -2555,7 +2556,7 @@
         <v>3.5999999999999899</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>357</v>
       </c>
@@ -2572,7 +2573,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>357</v>
       </c>
@@ -2589,7 +2590,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>357</v>
       </c>
@@ -2606,7 +2607,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>357</v>
       </c>
@@ -2623,7 +2624,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>357</v>
       </c>
@@ -2640,7 +2641,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>357</v>
       </c>
@@ -2657,7 +2658,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>357</v>
       </c>
@@ -2674,7 +2675,7 @@
         <v>3.69999999999999</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>357</v>
       </c>
@@ -2691,7 +2692,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>357</v>
       </c>
@@ -2708,7 +2709,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>357</v>
       </c>
@@ -2725,7 +2726,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>357</v>
       </c>
@@ -2742,7 +2743,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>357</v>
       </c>
@@ -2759,7 +2760,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>357</v>
       </c>
@@ -2776,7 +2777,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>357</v>
       </c>
@@ -2793,7 +2794,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>357</v>
       </c>
@@ -2810,7 +2811,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>357</v>
       </c>
@@ -2827,7 +2828,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>357</v>
       </c>
@@ -2844,7 +2845,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>357</v>
       </c>
@@ -2861,7 +2862,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>357</v>
       </c>
@@ -2878,7 +2879,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>357</v>
       </c>
@@ -2895,7 +2896,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>357</v>
       </c>
@@ -2912,7 +2913,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>357</v>
       </c>
@@ -2929,7 +2930,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>357</v>
       </c>
@@ -2946,7 +2947,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>357</v>
       </c>
@@ -2963,7 +2964,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>357</v>
       </c>
@@ -2980,7 +2981,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>357</v>
       </c>
@@ -2997,7 +2998,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>357</v>
       </c>
@@ -3014,7 +3015,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>357</v>
       </c>
@@ -3031,7 +3032,7 @@
         <v>4.3999999999999897</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>357</v>
       </c>
@@ -3048,7 +3049,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>357</v>
       </c>
@@ -3065,7 +3066,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>357</v>
       </c>
@@ -3082,7 +3083,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>357</v>
       </c>
@@ -3099,7 +3100,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>357</v>
       </c>
@@ -3116,7 +3117,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>357</v>
       </c>
@@ -3133,7 +3134,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>357</v>
       </c>
@@ -3150,7 +3151,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>357</v>
       </c>
@@ -3167,7 +3168,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>357</v>
       </c>
@@ -3184,7 +3185,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>357</v>
       </c>
@@ -3201,7 +3202,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>357</v>
       </c>
@@ -3218,7 +3219,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>357</v>
       </c>
@@ -3235,7 +3236,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>357</v>
       </c>
@@ -3252,7 +3253,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>357</v>
       </c>
@@ -3269,7 +3270,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>357</v>
       </c>
@@ -3286,7 +3287,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>357</v>
       </c>
@@ -3303,7 +3304,7 @@
         <v>3.5999999999999899</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>357</v>
       </c>
@@ -3320,7 +3321,7 @@
         <v>3.69999999999999</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>357</v>
       </c>
@@ -3337,7 +3338,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>357</v>
       </c>
@@ -3354,7 +3355,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>357</v>
       </c>
@@ -3371,7 +3372,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>357</v>
       </c>
@@ -3388,7 +3389,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>357</v>
       </c>
@@ -3405,7 +3406,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>357</v>
       </c>
@@ -3422,7 +3423,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>357</v>
       </c>
@@ -3439,7 +3440,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>357</v>
       </c>
@@ -3456,7 +3457,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>357</v>
       </c>
@@ -3473,7 +3474,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>357</v>
       </c>
@@ -3490,7 +3491,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>357</v>
       </c>
@@ -3507,7 +3508,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>357</v>
       </c>
@@ -3524,7 +3525,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>357</v>
       </c>
@@ -3541,7 +3542,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>357</v>
       </c>
@@ -3558,7 +3559,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>357</v>
       </c>
@@ -3575,7 +3576,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>357</v>
       </c>
@@ -3592,7 +3593,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>357</v>
       </c>
@@ -3609,7 +3610,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>357</v>
       </c>
@@ -3626,7 +3627,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>357</v>
       </c>
@@ -3643,7 +3644,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>357</v>
       </c>
@@ -3660,7 +3661,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>357</v>
       </c>
@@ -3677,7 +3678,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>357</v>
       </c>
@@ -3694,7 +3695,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>357</v>
       </c>
@@ -3711,7 +3712,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>357</v>
       </c>
@@ -3728,7 +3729,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>357</v>
       </c>
@@ -3745,7 +3746,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>357</v>
       </c>
@@ -3762,7 +3763,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>357</v>
       </c>
@@ -3779,7 +3780,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>357</v>
       </c>
@@ -3796,7 +3797,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>357</v>
       </c>
@@ -3813,7 +3814,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>357</v>
       </c>
@@ -3830,7 +3831,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>357</v>
       </c>
@@ -3847,7 +3848,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>357</v>
       </c>
@@ -3864,7 +3865,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>357</v>
       </c>
@@ -3881,7 +3882,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>357</v>
       </c>
@@ -3898,7 +3899,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>357</v>
       </c>
@@ -3915,7 +3916,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>357</v>
       </c>
@@ -3932,7 +3933,7 @@
         <v>3.69999999999999</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>357</v>
       </c>
@@ -3949,7 +3950,7 @@
         <v>3.69999999999999</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>357</v>
       </c>
@@ -3966,7 +3967,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>357</v>
       </c>
@@ -3983,7 +3984,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>357</v>
       </c>
@@ -4000,7 +4001,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>357</v>
       </c>
@@ -4017,7 +4018,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>357</v>
       </c>
@@ -4034,7 +4035,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>357</v>
       </c>
@@ -4051,7 +4052,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>357</v>
       </c>
@@ -4068,7 +4069,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>357</v>
       </c>
@@ -4085,7 +4086,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>357</v>
       </c>
@@ -4102,7 +4103,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>357</v>
       </c>
@@ -4119,7 +4120,7 @@
         <v>4.3999999999999897</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>357</v>
       </c>
@@ -4136,7 +4137,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>357</v>
       </c>
@@ -4153,7 +4154,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>357</v>
       </c>
@@ -4170,7 +4171,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>357</v>
       </c>
@@ -4187,7 +4188,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>357</v>
       </c>
@@ -4204,7 +4205,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>357</v>
       </c>
@@ -4221,7 +4222,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>357</v>
       </c>
@@ -4238,7 +4239,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>357</v>
       </c>
@@ -4255,7 +4256,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>357</v>
       </c>
@@ -4272,7 +4273,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>357</v>
       </c>
@@ -4289,7 +4290,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>357</v>
       </c>
@@ -4306,7 +4307,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>357</v>
       </c>
@@ -4323,7 +4324,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>357</v>
       </c>
@@ -4340,7 +4341,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>357</v>
       </c>
@@ -4357,7 +4358,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>357</v>
       </c>
@@ -4374,7 +4375,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>357</v>
       </c>
@@ -4391,7 +4392,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>357</v>
       </c>
@@ -4408,7 +4409,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>357</v>
       </c>
@@ -4425,7 +4426,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>357</v>
       </c>
@@ -4442,7 +4443,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>357</v>
       </c>
@@ -4459,7 +4460,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>357</v>
       </c>
@@ -4476,7 +4477,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>357</v>
       </c>
@@ -4493,7 +4494,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>357</v>
       </c>
@@ -4510,7 +4511,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>357</v>
       </c>
@@ -4527,7 +4528,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>357</v>
       </c>
@@ -4544,7 +4545,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>357</v>
       </c>
@@ -4561,7 +4562,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>357</v>
       </c>
@@ -4578,7 +4579,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>357</v>
       </c>
@@ -4595,7 +4596,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>357</v>
       </c>
@@ -4612,7 +4613,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>357</v>
       </c>
@@ -4629,7 +4630,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>357</v>
       </c>
@@ -4646,7 +4647,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>357</v>
       </c>
@@ -4663,7 +4664,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>357</v>
       </c>
@@ -4680,7 +4681,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>357</v>
       </c>
@@ -4697,7 +4698,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>357</v>
       </c>
@@ -4714,7 +4715,7 @@
         <v>4.3999999999999897</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>357</v>
       </c>
@@ -4731,7 +4732,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>357</v>
       </c>
@@ -4748,7 +4749,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>357</v>
       </c>
@@ -4765,7 +4766,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>357</v>
       </c>
@@ -4782,7 +4783,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>357</v>
       </c>
@@ -4799,7 +4800,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>357</v>
       </c>
@@ -4816,7 +4817,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>357</v>
       </c>
@@ -4833,7 +4834,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>357</v>
       </c>
@@ -4850,7 +4851,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>357</v>
       </c>
@@ -4867,7 +4868,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>357</v>
       </c>
@@ -4884,7 +4885,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>357</v>
       </c>
@@ -4901,7 +4902,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>357</v>
       </c>
@@ -4918,7 +4919,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>357</v>
       </c>
@@ -4935,7 +4936,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>357</v>
       </c>
@@ -4952,7 +4953,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>357</v>
       </c>
@@ -4969,7 +4970,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>357</v>
       </c>
@@ -4986,7 +4987,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>357</v>
       </c>
@@ -5003,7 +5004,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>357</v>
       </c>
@@ -5020,7 +5021,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>357</v>
       </c>
@@ -5037,7 +5038,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>357</v>
       </c>
@@ -5054,7 +5055,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>357</v>
       </c>
@@ -5071,7 +5072,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>357</v>
       </c>
@@ -5088,7 +5089,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>357</v>
       </c>
@@ -5105,7 +5106,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>357</v>
       </c>
@@ -5122,7 +5123,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>357</v>
       </c>
@@ -5139,7 +5140,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>357</v>
       </c>
@@ -5156,7 +5157,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>357</v>
       </c>
@@ -5173,7 +5174,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>357</v>
       </c>
@@ -5190,7 +5191,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>357</v>
       </c>
@@ -5207,7 +5208,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>357</v>
       </c>
@@ -5224,7 +5225,7 @@
         <v>3.5999999999999899</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>357</v>
       </c>
@@ -5241,7 +5242,7 @@
         <v>3.5999999999999899</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>357</v>
       </c>
@@ -5258,7 +5259,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>357</v>
       </c>
@@ -5275,7 +5276,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>357</v>
       </c>
@@ -5292,7 +5293,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>357</v>
       </c>
@@ -5309,7 +5310,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>357</v>
       </c>
@@ -5326,7 +5327,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>357</v>
       </c>
@@ -5343,7 +5344,7 @@
         <v>3.69999999999999</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>357</v>
       </c>
@@ -5360,7 +5361,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>357</v>
       </c>
@@ -5377,7 +5378,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>357</v>
       </c>
@@ -5394,7 +5395,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>357</v>
       </c>
@@ -5411,7 +5412,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>357</v>
       </c>
@@ -5428,7 +5429,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>357</v>
       </c>
@@ -5445,7 +5446,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>357</v>
       </c>
@@ -5462,7 +5463,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>357</v>
       </c>
@@ -5479,7 +5480,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>357</v>
       </c>
@@ -5496,7 +5497,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>357</v>
       </c>
@@ -5513,7 +5514,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>357</v>
       </c>
@@ -5530,7 +5531,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>357</v>
       </c>
@@ -5547,7 +5548,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>357</v>
       </c>
@@ -5564,7 +5565,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>357</v>
       </c>
@@ -5581,7 +5582,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>357</v>
       </c>
@@ -5598,7 +5599,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>357</v>
       </c>
@@ -5615,7 +5616,7 @@
         <v>3.5999999999999899</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>357</v>
       </c>
@@ -5632,7 +5633,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>357</v>
       </c>
@@ -5649,7 +5650,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>357</v>
       </c>
@@ -5666,7 +5667,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>357</v>
       </c>
@@ -5683,7 +5684,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>357</v>
       </c>
@@ -5700,7 +5701,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>357</v>
       </c>
@@ -5717,7 +5718,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>357</v>
       </c>
@@ -5734,7 +5735,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>357</v>
       </c>
@@ -5751,7 +5752,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>357</v>
       </c>
@@ -5768,7 +5769,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>357</v>
       </c>
@@ -5785,7 +5786,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>357</v>
       </c>
@@ -5802,7 +5803,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>357</v>
       </c>
@@ -5819,7 +5820,7 @@
         <v>3.5999999999999899</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>357</v>
       </c>
@@ -5836,7 +5837,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>357</v>
       </c>
@@ -5853,7 +5854,7 @@
         <v>3.69999999999999</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>357</v>
       </c>
@@ -5870,7 +5871,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>357</v>
       </c>
@@ -5887,7 +5888,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>357</v>
       </c>
@@ -5904,7 +5905,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>357</v>
       </c>
@@ -5921,7 +5922,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>357</v>
       </c>
@@ -5938,7 +5939,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>357</v>
       </c>
@@ -5955,7 +5956,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>357</v>
       </c>
@@ -5972,7 +5973,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>357</v>
       </c>
@@ -5989,7 +5990,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>357</v>
       </c>
@@ -6006,7 +6007,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>357</v>
       </c>
@@ -6023,7 +6024,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>357</v>
       </c>
@@ -6040,7 +6041,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>357</v>
       </c>
@@ -6057,7 +6058,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>357</v>
       </c>
@@ -6074,7 +6075,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>357</v>
       </c>
@@ -6091,7 +6092,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>357</v>
       </c>
@@ -6108,7 +6109,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>357</v>
       </c>
@@ -6125,7 +6126,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>357</v>
       </c>
@@ -6142,7 +6143,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>357</v>
       </c>
@@ -6159,7 +6160,7 @@
         <v>3.69999999999999</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>357</v>
       </c>
@@ -6176,7 +6177,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>357</v>
       </c>
@@ -6193,7 +6194,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>357</v>
       </c>
@@ -6210,7 +6211,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>357</v>
       </c>
@@ -6227,7 +6228,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>357</v>
       </c>
@@ -6244,7 +6245,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>357</v>
       </c>
@@ -6261,7 +6262,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>357</v>
       </c>
@@ -6278,7 +6279,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>357</v>
       </c>
@@ -6295,7 +6296,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>357</v>
       </c>
@@ -6312,7 +6313,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>357</v>
       </c>
@@ -6329,7 +6330,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>357</v>
       </c>
@@ -6346,7 +6347,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>357</v>
       </c>
@@ -6363,7 +6364,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>357</v>
       </c>
@@ -6380,7 +6381,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>357</v>
       </c>
@@ -6397,7 +6398,7 @@
         <v>3.5999999999999899</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>357</v>
       </c>
@@ -6414,7 +6415,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>357</v>
       </c>
@@ -6431,7 +6432,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>357</v>
       </c>
@@ -6448,7 +6449,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>357</v>
       </c>
@@ -6465,7 +6466,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>357</v>
       </c>
@@ -6482,7 +6483,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>357</v>
       </c>
@@ -6499,7 +6500,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>357</v>
       </c>
@@ -6516,7 +6517,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>357</v>
       </c>
@@ -6533,7 +6534,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>357</v>
       </c>
@@ -6550,7 +6551,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>357</v>
       </c>
@@ -6567,7 +6568,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>357</v>
       </c>
@@ -6584,7 +6585,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>357</v>
       </c>
@@ -6601,7 +6602,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>357</v>
       </c>
@@ -6618,7 +6619,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>357</v>
       </c>
@@ -6635,7 +6636,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>357</v>
       </c>
@@ -6652,7 +6653,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>357</v>
       </c>
@@ -6669,7 +6670,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>357</v>
       </c>
@@ -6686,7 +6687,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>357</v>
       </c>
@@ -6703,7 +6704,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>357</v>
       </c>
@@ -6720,7 +6721,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>357</v>
       </c>
@@ -6737,7 +6738,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>357</v>
       </c>
@@ -6754,7 +6755,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>357</v>
       </c>
@@ -6771,7 +6772,7 @@
         <v>3.5999999999999899</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>357</v>
       </c>
@@ -6788,7 +6789,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>357</v>
       </c>
@@ -6805,7 +6806,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>357</v>
       </c>
@@ -6822,7 +6823,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>357</v>
       </c>
@@ -6839,7 +6840,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>357</v>
       </c>
@@ -6856,7 +6857,7 @@
         <v>3.69999999999999</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>357</v>
       </c>
@@ -6873,7 +6874,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>357</v>
       </c>
@@ -6890,7 +6891,7 @@
         <v>3.69999999999999</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>357</v>
       </c>
@@ -6907,7 +6908,7 @@
         <v>3.5999999999999899</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>357</v>
       </c>
@@ -6924,7 +6925,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>357</v>
       </c>
@@ -6941,7 +6942,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>357</v>
       </c>
@@ -6958,7 +6959,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>357</v>
       </c>
@@ -6975,7 +6976,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>357</v>
       </c>
@@ -6992,7 +6993,7 @@
         <v>3.5999999999999899</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>357</v>
       </c>
@@ -7009,7 +7010,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>357</v>
       </c>
@@ -7026,7 +7027,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>357</v>
       </c>
@@ -7043,7 +7044,7 @@
         <v>3.5999999999999899</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>357</v>
       </c>
@@ -7060,7 +7061,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>357</v>
       </c>
@@ -7077,7 +7078,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>357</v>
       </c>
@@ -7094,7 +7095,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>357</v>
       </c>
@@ -7111,7 +7112,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>357</v>
       </c>
@@ -7128,7 +7129,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>357</v>
       </c>
@@ -7145,7 +7146,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>357</v>
       </c>
@@ -7162,7 +7163,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>357</v>
       </c>
@@ -7179,7 +7180,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>357</v>
       </c>
@@ -7196,7 +7197,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>357</v>
       </c>
@@ -7213,7 +7214,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>357</v>
       </c>
@@ -7230,7 +7231,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
         <v>357</v>
       </c>
@@ -7247,7 +7248,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>357</v>
       </c>
@@ -7264,7 +7265,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
         <v>357</v>
       </c>
@@ -7281,7 +7282,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
         <v>357</v>
       </c>
@@ -7298,7 +7299,7 @@
         <v>3.69999999999999</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
         <v>357</v>
       </c>
@@ -7315,7 +7316,7 @@
         <v>3.5999999999999899</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
         <v>357</v>
       </c>
@@ -7332,7 +7333,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
         <v>357</v>
       </c>
@@ -7349,7 +7350,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
         <v>357</v>
       </c>
@@ -7366,7 +7367,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
         <v>357</v>
       </c>
@@ -7383,7 +7384,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
         <v>357</v>
       </c>
@@ -7400,7 +7401,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
         <v>357</v>
       </c>
@@ -7417,7 +7418,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
         <v>357</v>
       </c>
@@ -7434,7 +7435,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
         <v>357</v>
       </c>
